--- a/src/analysis_examples/circadb/results_jtk/cosinor_10525313_atxn2_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10525313_atxn2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.32201852569063316, 0.4461277245123828]</t>
+          <t>[0.32065295828762214, 0.44749329191539383]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.977973340672179e-11</v>
+        <v>2.971334289725291e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>1.977973340672179e-11</v>
+        <v>2.971334289725291e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-0.767315923399309</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.438906241569208, 0.5042751919386594]</t>
+          <t>[0.4389074893617244, 0.504273944146143]</t>
         </is>
       </c>
       <c r="U2" t="n">
